--- a/data/trans_dic/P37A$vacunapreferencia-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunapreferencia-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04997157410686761</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06786979641544023</v>
+        <v>0.06786979641544025</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02501441514291585</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007244676284146657</v>
+        <v>0.008796910909979362</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02294178946555839</v>
+        <v>0.0227508738169237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009930997326310731</v>
+        <v>0.009728259725041549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03838134825744546</v>
+        <v>0.04139775133424807</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01173015015212711</v>
+        <v>0.01174426362150023</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02809263341058424</v>
+        <v>0.02730610602900187</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04947489321697768</v>
+        <v>0.04795960315740762</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01321985055838154</v>
+        <v>0.01385101857609494</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01331158246147018</v>
+        <v>0.01270609336923276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02187076815767424</v>
+        <v>0.02232953901549478</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0505980781202683</v>
+        <v>0.04941766928349735</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04677334664400383</v>
+        <v>0.04766624573411184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07176695885115647</v>
+        <v>0.07700722321228137</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04603011444591506</v>
+        <v>0.04488557991804286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09673784400472821</v>
+        <v>0.09847522916481291</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05455986958228572</v>
+        <v>0.05685596263837733</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01812789034349926</v>
+        <v>0.0180361053567201</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08937722297206269</v>
+        <v>0.09280954109525325</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0935864647439663</v>
+        <v>0.09315748296170652</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04130803028754661</v>
+        <v>0.04205105061703863</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03936708682220572</v>
+        <v>0.04148913195586455</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05539969300184069</v>
+        <v>0.0564113727950007</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08627814274614268</v>
+        <v>0.08339452688525394</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.02106420666324715</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06592592365332234</v>
+        <v>0.06592592365332232</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02377701486044901</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01786246850384214</v>
+        <v>0.01699522064017988</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01485111824084258</v>
+        <v>0.014279288522958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004004549717138852</v>
+        <v>0.003902281496654534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06019936873374782</v>
+        <v>0.06281938606352604</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007794303896436256</v>
+        <v>0.007653085025877758</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002082853339905646</v>
+        <v>0.001860008375598946</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01061630616980189</v>
+        <v>0.01020848945245904</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04788285996124614</v>
+        <v>0.04827261609242081</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01478782659856997</v>
+        <v>0.01550081650303339</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009691608078350764</v>
+        <v>0.009899223547813068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009348844337011405</v>
+        <v>0.009969883490990124</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06123527725850497</v>
+        <v>0.06037542659705273</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05727782671005269</v>
+        <v>0.05529188226360053</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04266812803604178</v>
+        <v>0.04108935803699743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02389097658089899</v>
+        <v>0.02355747835565886</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1149199456743522</v>
+        <v>0.1198165648655332</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0311555608132393</v>
+        <v>0.02977149947177301</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01955967542971216</v>
+        <v>0.01776702656914143</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.036013603139313</v>
+        <v>0.03644630774400322</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08660460447728179</v>
+        <v>0.08930334899669944</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03708732956470263</v>
+        <v>0.03726345503581821</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02549065437172991</v>
+        <v>0.02611603951645494</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.025118351504362</v>
+        <v>0.02584200010148256</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09330758565794124</v>
+        <v>0.09393325533595799</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01489779882806752</v>
+        <v>0.01218785203570345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01817337742728522</v>
+        <v>0.01557858513658941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009739467567252007</v>
+        <v>0.009612463662360897</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01598489514293241</v>
+        <v>0.01758642628891509</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005695197595863796</v>
+        <v>0.005352377804200836</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.002889448460248514</v>
+        <v>0.00289004511474858</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006153645443389574</v>
+        <v>0.006193252560759128</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02648638579168477</v>
+        <v>0.02553845561755192</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01256402993386186</v>
+        <v>0.0120664281908149</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01330124674454631</v>
+        <v>0.01339783613881325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01038381981688436</v>
+        <v>0.01031666677867899</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02486680173688994</v>
+        <v>0.02390231455281316</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05027574274259795</v>
+        <v>0.04967499318479753</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06730843228685249</v>
+        <v>0.06510123736835544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04796495795555172</v>
+        <v>0.04397167600888882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05381509371078712</v>
+        <v>0.05132945469793912</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0371563890809771</v>
+        <v>0.03575065724813183</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02883365271040131</v>
+        <v>0.02616118438040063</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04001780826142437</v>
+        <v>0.03844618960477528</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06527370476391474</v>
+        <v>0.06033859640263782</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03551948767557247</v>
+        <v>0.0348969790031023</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03875435615685939</v>
+        <v>0.0392596094602352</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03624757192170213</v>
+        <v>0.03410466825670881</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05135236269611783</v>
+        <v>0.04883428368620765</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01276989811483487</v>
+        <v>0.01235423942398243</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01928872264577964</v>
+        <v>0.01923152079270777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004564528294638728</v>
+        <v>0.004757773534269907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02710859687351235</v>
+        <v>0.02673097535186173</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007945679584057164</v>
+        <v>0.009250402573039057</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01812600905466447</v>
+        <v>0.01837364870310186</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05030906935453212</v>
+        <v>0.05017966915832325</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01379179473251823</v>
+        <v>0.01418343959243156</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02264356115187153</v>
+        <v>0.02398595019277388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003770991852082262</v>
+        <v>0.003565118975813544</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04265844196902825</v>
+        <v>0.04377316258687963</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04589562463020505</v>
+        <v>0.04821197743326799</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06495196124175244</v>
+        <v>0.06235512829226742</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02678180929113977</v>
+        <v>0.02913631102309382</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07351304438605413</v>
+        <v>0.07232108433544367</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03949357392879504</v>
+        <v>0.03747779949763934</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0569676362902635</v>
+        <v>0.05408303671737238</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01706823830282986</v>
+        <v>0.01494081870649824</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09217510742144701</v>
+        <v>0.09333315411574884</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03607826772804724</v>
+        <v>0.03605950174974393</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05062936484572915</v>
+        <v>0.05245292163652496</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01799897563042854</v>
+        <v>0.01702182741898991</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07573756831115004</v>
+        <v>0.07692967801717594</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03013788457088796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08654780417702043</v>
+        <v>0.08654780417702045</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03633685018467187</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02294239336960555</v>
+        <v>0.02292606213479015</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009848392857153419</v>
+        <v>0.009796989903559566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01260200362817194</v>
+        <v>0.01250396344714826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05876889414138749</v>
+        <v>0.06036223246243427</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01416598090943253</v>
+        <v>0.01425943979587292</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008893613854740809</v>
+        <v>0.008885526415496486</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06741177070265102</v>
+        <v>0.06826662686416417</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02401816774056757</v>
+        <v>0.02446401794981261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.00946818854007099</v>
+        <v>0.007296000973957589</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01537889970308863</v>
+        <v>0.01394393081499962</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06944007833316015</v>
+        <v>0.07063235386446956</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08001356987730174</v>
+        <v>0.0795764596456386</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06046033334217345</v>
+        <v>0.06348452979635409</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05895789089872194</v>
+        <v>0.06065509436252355</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1234938036183981</v>
+        <v>0.1248005044402994</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07691596847560626</v>
+        <v>0.07732852872053621</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03388489406527952</v>
+        <v>0.03027289482419943</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05330880007587471</v>
+        <v>0.05237445949985457</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1184703453427712</v>
+        <v>0.115375188089768</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0610828605404237</v>
+        <v>0.06518168975109789</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03645859328400725</v>
+        <v>0.03525444985860258</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04516660069540204</v>
+        <v>0.04421014105369146</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1089202623913543</v>
+        <v>0.1106669789672244</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.03506137789988695</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.02423122578171475</v>
+        <v>0.02423122578171474</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02395471461055604</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007389212071155408</v>
+        <v>0.007280867626346478</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01455101559675051</v>
+        <v>0.01438662341726893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01090850632407991</v>
+        <v>0.01267544213368936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.007186327366900932</v>
+        <v>0.006035176644829911</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01109699769006268</v>
+        <v>0.01099984538219889</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02053655821486814</v>
+        <v>0.02046154552736716</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01758221708291097</v>
+        <v>0.01763312289804482</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01237760759179136</v>
+        <v>0.0117734755820533</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01350136056897856</v>
+        <v>0.01291782073527761</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0209864109173205</v>
+        <v>0.0210916751142068</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01871214961051447</v>
+        <v>0.017335932484068</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01194532809211292</v>
+        <v>0.01193925588877072</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04372103555663298</v>
+        <v>0.04361204889706183</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05751569189306602</v>
+        <v>0.05636253778894409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06072725598124389</v>
+        <v>0.05484874640882514</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04185919906689363</v>
+        <v>0.03742507917688179</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05113514944976499</v>
+        <v>0.04875320194958339</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06881434040847643</v>
+        <v>0.06715392390954635</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06481010644951606</v>
+        <v>0.06433988354981701</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04318650704975918</v>
+        <v>0.04203224208345806</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04105646817263055</v>
+        <v>0.03977715117890301</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05211915372298775</v>
+        <v>0.05080537560934028</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0502842483792025</v>
+        <v>0.0474702668025055</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03328712113669417</v>
+        <v>0.03341489623312052</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.01009339854063578</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07729926397004502</v>
+        <v>0.07729926397004504</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03177664569130952</v>
@@ -1513,7 +1513,7 @@
         <v>0.009071202508314651</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.08143751073337234</v>
+        <v>0.08143751073337235</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01715326486476496</v>
+        <v>0.01696359389735154</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02479015308491221</v>
+        <v>0.02537868390466786</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001801001549180502</v>
+        <v>0.002903609659443511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06731704937060191</v>
+        <v>0.06675798128114203</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02229017014719324</v>
+        <v>0.02104408391307881</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01688747954850844</v>
+        <v>0.01718346580993786</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003906411760922618</v>
+        <v>0.003879227333137965</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0606240555343618</v>
+        <v>0.06223594586934376</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02297801588596969</v>
+        <v>0.02267931489793997</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02296646772522427</v>
+        <v>0.02394216297320149</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.004595857188685529</v>
+        <v>0.004549141137373898</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0663310096055852</v>
+        <v>0.06801879004171407</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04705008149148027</v>
+        <v>0.04530309025950767</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05485644495879893</v>
+        <v>0.0558227951672866</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01976425407149257</v>
+        <v>0.02084903914900552</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1103602398521409</v>
+        <v>0.1103662702456569</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05155837251481661</v>
+        <v>0.05165181051405317</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04402372382223835</v>
+        <v>0.04198451305451798</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02084599589580952</v>
+        <v>0.02130364342983135</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09745870143816085</v>
+        <v>0.09862915637771467</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04382335504099328</v>
+        <v>0.04405188222316202</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04339670022466047</v>
+        <v>0.04436046930123324</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01678973817192857</v>
+        <v>0.01635995591434168</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09555863762643485</v>
+        <v>0.09667413570091296</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01533507400407691</v>
+        <v>0.01610139728653013</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009378141853793404</v>
+        <v>0.009328541112458257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.007931868392209069</v>
+        <v>0.00783908795033084</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1031396002187525</v>
+        <v>0.1034369536356807</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01660977085615629</v>
+        <v>0.01743848517975002</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.009043109188912581</v>
+        <v>0.0089924371186403</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.005149961703417485</v>
+        <v>0.005257058454353209</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1094868934766977</v>
+        <v>0.1076621881739887</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01840089815401439</v>
+        <v>0.01843675986688375</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01108369873660442</v>
+        <v>0.01124459788746123</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.007558235585128741</v>
+        <v>0.007775262518257154</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1127363641967965</v>
+        <v>0.1122130956320762</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03912269061798523</v>
+        <v>0.03733699141898292</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0281940092802305</v>
+        <v>0.03000347150849018</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02419044490538344</v>
+        <v>0.02578746468283425</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1486164150075888</v>
+        <v>0.1500462399967086</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04330328915733211</v>
+        <v>0.04130106634964144</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02822524174039315</v>
+        <v>0.02905956856101446</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02108635012205034</v>
+        <v>0.02075292849850304</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1478265406133493</v>
+        <v>0.1477545878237878</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03494017154063022</v>
+        <v>0.03510980247691951</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02461467600477027</v>
+        <v>0.025761446401116</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01863033502375081</v>
+        <v>0.01823286504843348</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1418375001228726</v>
+        <v>0.1433094824557234</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.01612896315600401</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.07848759188355858</v>
+        <v>0.07848759188355856</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.02539704821019888</v>
@@ -1785,7 +1785,7 @@
         <v>0.01708228783864698</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.07852081520358206</v>
+        <v>0.07852081520358205</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02227103448889533</v>
+        <v>0.02260548657989828</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02507076128248122</v>
+        <v>0.02492673095868363</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.012444650944344</v>
+        <v>0.01267839570999348</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06948798926890647</v>
+        <v>0.06962842548003721</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02055905311988722</v>
+        <v>0.02034960394628156</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01515878395978851</v>
+        <v>0.01464172625743097</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01356303550495595</v>
+        <v>0.01384655924060113</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.071203822961588</v>
+        <v>0.07105170135633329</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02209433421305369</v>
+        <v>0.02283937826353471</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02141079622364449</v>
+        <v>0.02119588181278059</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0141112219745042</v>
+        <v>0.01427992604185112</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.07308447410665245</v>
+        <v>0.07299098884762817</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03442974265203021</v>
+        <v>0.03437869298486995</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03672655997585207</v>
+        <v>0.03797679973509614</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02124627546719885</v>
+        <v>0.02133558388424528</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.08826347350438817</v>
+        <v>0.08841763022063404</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03133230507107263</v>
+        <v>0.03120167422214151</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02404645688084824</v>
+        <v>0.02444413795098214</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02353516702760737</v>
+        <v>0.02292535442005354</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.08638381948184316</v>
+        <v>0.08581954980200397</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03083307366561911</v>
+        <v>0.03109218256379285</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02873619031676033</v>
+        <v>0.02877769064922969</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02044972403774415</v>
+        <v>0.02045556167342535</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.08445853315539513</v>
+        <v>0.08495260955912377</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1978</v>
+        <v>2402</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6762</v>
+        <v>6706</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2917</v>
+        <v>2858</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12238</v>
+        <v>13199</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8110</v>
+        <v>7883</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15637</v>
+        <v>15158</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7057</v>
+        <v>7394</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7747</v>
+        <v>7395</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12739</v>
+        <v>13006</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>32125</v>
+        <v>31376</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12770</v>
+        <v>13013</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21152</v>
+        <v>22697</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13522</v>
+        <v>13186</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30844</v>
+        <v>31398</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14231</v>
+        <v>14830</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5207</v>
+        <v>5181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25803</v>
+        <v>26794</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29579</v>
+        <v>29443</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22052</v>
+        <v>22449</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22911</v>
+        <v>24146</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32268</v>
+        <v>32858</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>54779</v>
+        <v>52948</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8808</v>
+        <v>8380</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7508</v>
+        <v>7219</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2013</v>
+        <v>1961</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>31945</v>
+        <v>33335</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3928</v>
+        <v>3857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1091</v>
+        <v>974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5553</v>
+        <v>5340</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26168</v>
+        <v>26381</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14744</v>
+        <v>15455</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9975</v>
+        <v>10189</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9589</v>
+        <v>10226</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>65959</v>
+        <v>65033</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28242</v>
+        <v>27263</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21570</v>
+        <v>20772</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12007</v>
+        <v>11839</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60982</v>
+        <v>63580</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15701</v>
+        <v>15003</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10245</v>
+        <v>9306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18838</v>
+        <v>19064</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>47329</v>
+        <v>48804</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36977</v>
+        <v>37153</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26237</v>
+        <v>26881</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>25763</v>
+        <v>26505</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>100505</v>
+        <v>101179</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4750</v>
+        <v>3886</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5889</v>
+        <v>5048</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3103</v>
+        <v>3062</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5051</v>
+        <v>5557</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1910</v>
+        <v>1795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2070</v>
+        <v>2083</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9439</v>
+        <v>9101</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8220</v>
+        <v>7895</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8846</v>
+        <v>8910</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6800</v>
+        <v>6756</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16720</v>
+        <v>16071</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16030</v>
+        <v>15839</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21811</v>
+        <v>21096</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15280</v>
+        <v>14008</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17005</v>
+        <v>16220</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12463</v>
+        <v>11991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9833</v>
+        <v>8921</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13458</v>
+        <v>12930</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23262</v>
+        <v>21504</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23239</v>
+        <v>22832</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>25774</v>
+        <v>26110</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23738</v>
+        <v>22334</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34528</v>
+        <v>32835</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4580</v>
+        <v>4431</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7214</v>
+        <v>7192</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1689</v>
+        <v>1760</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10115</v>
+        <v>9975</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2951</v>
+        <v>3436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7050</v>
+        <v>7146</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21228</v>
+        <v>21174</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10070</v>
+        <v>10356</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>17276</v>
+        <v>18300</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2856</v>
+        <v>2700</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>33918</v>
+        <v>34804</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16461</v>
+        <v>17292</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24291</v>
+        <v>23320</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9908</v>
+        <v>10779</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27431</v>
+        <v>26986</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14670</v>
+        <v>13921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22158</v>
+        <v>21036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6610</v>
+        <v>5786</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>38894</v>
+        <v>39383</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26342</v>
+        <v>26328</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>38627</v>
+        <v>40018</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13630</v>
+        <v>12890</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>60219</v>
+        <v>61167</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4664</v>
+        <v>4661</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2094</v>
+        <v>2083</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2662</v>
+        <v>2641</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12087</v>
+        <v>12414</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2942</v>
+        <v>2961</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>15432</v>
+        <v>15627</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>9871</v>
+        <v>10054</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6610</v>
+        <v>5993</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>30177</v>
+        <v>30696</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16267</v>
+        <v>16179</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12855</v>
+        <v>13498</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12453</v>
+        <v>12812</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25398</v>
+        <v>25667</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15973</v>
+        <v>16059</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7441</v>
+        <v>6648</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11653</v>
+        <v>11448</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>27120</v>
+        <v>26411</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25104</v>
+        <v>26788</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>15758</v>
+        <v>15237</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19413</v>
+        <v>19002</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>47335</v>
+        <v>48094</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2001</v>
+        <v>1972</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3987</v>
+        <v>3942</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2870</v>
+        <v>3335</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1945</v>
+        <v>1634</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3087</v>
+        <v>3060</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>5751</v>
+        <v>5730</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4802</v>
+        <v>4816</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3265</v>
+        <v>3105</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7412</v>
+        <v>7091</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>11627</v>
+        <v>11685</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10034</v>
+        <v>9296</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>6384</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11840</v>
+        <v>11811</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15758</v>
+        <v>15442</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15979</v>
+        <v>14432</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11332</v>
+        <v>10131</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14223</v>
+        <v>13560</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>19270</v>
+        <v>18805</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17701</v>
+        <v>17572</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11390</v>
+        <v>11086</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>22538</v>
+        <v>21836</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>28875</v>
+        <v>28147</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>26964</v>
+        <v>25455</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>17791</v>
+        <v>17859</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10550</v>
+        <v>10433</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16431</v>
+        <v>16821</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1182</v>
+        <v>1906</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>48447</v>
+        <v>48045</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14226</v>
+        <v>13431</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>11717</v>
+        <v>11923</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2700</v>
+        <v>2682</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>46805</v>
+        <v>48050</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>28797</v>
+        <v>28423</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>31157</v>
+        <v>32481</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6195</v>
+        <v>6132</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>98949</v>
+        <v>101467</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28937</v>
+        <v>27863</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>36358</v>
+        <v>36999</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12976</v>
+        <v>13689</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>79425</v>
+        <v>79429</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>32906</v>
+        <v>32965</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>30546</v>
+        <v>29131</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>14411</v>
+        <v>14727</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>75244</v>
+        <v>76147</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>54921</v>
+        <v>55208</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>58874</v>
+        <v>60181</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>22630</v>
+        <v>22051</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>142549</v>
+        <v>144213</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11406</v>
+        <v>11976</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7306</v>
+        <v>7268</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6176</v>
+        <v>6103</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>82313</v>
+        <v>82550</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>13014</v>
+        <v>13663</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>7450</v>
+        <v>7408</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>4255</v>
+        <v>4343</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>91020</v>
+        <v>89503</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>28104</v>
+        <v>28159</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>17767</v>
+        <v>18025</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>12129</v>
+        <v>12477</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>183693</v>
+        <v>182840</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>29099</v>
+        <v>27771</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>21966</v>
+        <v>23376</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>18834</v>
+        <v>20078</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>118607</v>
+        <v>119748</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>33929</v>
+        <v>32360</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>23253</v>
+        <v>23941</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>17421</v>
+        <v>17145</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>122893</v>
+        <v>122833</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>53364</v>
+        <v>53623</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>39456</v>
+        <v>41294</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>29897</v>
+        <v>29259</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>231110</v>
+        <v>233509</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>72972</v>
+        <v>74068</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>85912</v>
+        <v>85418</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>42242</v>
+        <v>43035</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>245485</v>
+        <v>245981</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>69473</v>
+        <v>68765</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>53940</v>
+        <v>52100</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>48075</v>
+        <v>49080</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>266085</v>
+        <v>265517</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>147054</v>
+        <v>152013</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>149556</v>
+        <v>148055</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>97916</v>
+        <v>99087</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>531303</v>
+        <v>530624</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>112811</v>
+        <v>112643</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>125854</v>
+        <v>130138</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>72117</v>
+        <v>72420</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>311814</v>
+        <v>312358</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>105878</v>
+        <v>105437</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>85565</v>
+        <v>86980</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>83421</v>
+        <v>81260</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>322812</v>
+        <v>320704</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>205217</v>
+        <v>206942</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>200725</v>
+        <v>201015</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>141898</v>
+        <v>141939</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>613990</v>
+        <v>617581</v>
       </c>
     </row>
     <row r="40">
